--- a/SimpleTest.xlsx
+++ b/SimpleTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4264522ea65d2ce8/Dokumenter/NTNU/Master/Python Code/Hardcode Relrad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4264522ea65d2ce8/Dokumenter/NTNU/Master/Python Code/Git Repo/Simple-System-for-Power-System-Reliability-Calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="952" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9136FD4-2412-4717-97D4-3689514010E5}"/>
+  <xr:revisionPtr revIDLastSave="959" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FDF4326-4AF5-444E-9701-AC7B29F71562}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus Data" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>LP1</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Lim MW</t>
   </si>
   <si>
-    <t>Lim MVAR</t>
-  </si>
-  <si>
-    <t>inf</t>
-  </si>
-  <si>
     <t>Main Feeder</t>
   </si>
   <si>
@@ -177,6 +171,15 @@
   </si>
   <si>
     <t>BS1</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>E cap</t>
   </si>
 </sst>
 </file>
@@ -235,6 +238,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,7 +510,7 @@
   <dimension ref="A2:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +575,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,28 +591,28 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -628,7 +635,7 @@
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -663,7 +670,7 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -698,7 +705,7 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -733,7 +740,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -768,7 +775,7 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -803,7 +810,7 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -838,7 +845,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -873,7 +880,7 @@
         <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -899,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF1C9F0-4343-4AD1-924D-ED1403BEA6CF}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,10 +1020,10 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1024,13 +1031,27 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1050,10 +1071,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -1061,7 +1082,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1096,7 +1117,7 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -1104,7 +1125,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -1118,7 +1139,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0.2</v>

--- a/SimpleTest.xlsx
+++ b/SimpleTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4264522ea65d2ce8/Dokumenter/NTNU/Master/Python Code/Git Repo/Simple-System-for-Power-System-Reliability-Calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="959" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FDF4326-4AF5-444E-9701-AC7B29F71562}"/>
+  <xr:revisionPtr revIDLastSave="962" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32A9144D-F452-4703-A521-C0C69D7EEFA3}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus Data" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>LP1</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Line 2</t>
   </si>
   <si>
-    <t>BS1</t>
-  </si>
-  <si>
     <t>False</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>E cap</t>
+  </si>
+  <si>
+    <t>industrial</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +907,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>0.56599999999999995</v>
@@ -1010,7 +1010,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1020,7 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>31</v>
@@ -1031,10 +1031,10 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1061,15 +1061,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E048BFAE-5E89-49CD-86BC-5447EDAEAF07}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="B1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -1078,20 +1078,6 @@
       </c>
       <c r="D1" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/SimpleTest.xlsx
+++ b/SimpleTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4264522ea65d2ce8/Dokumenter/NTNU/Master/Python Code/Git Repo/Simple-System-for-Power-System-Reliability-Calculations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="962" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32A9144D-F452-4703-A521-C0C69D7EEFA3}"/>
+  <xr:revisionPtr revIDLastSave="965" documentId="11_AD4D1D646341095ACB70008C251E688C5BDEDD88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41A0FD90-573D-4957-91AB-1D82FBC76B55}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus Data" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
   <si>
     <t>LP1</t>
   </si>
@@ -143,24 +143,15 @@
     <t>Nr Transformers</t>
   </si>
   <si>
-    <t>Nr Protection</t>
-  </si>
-  <si>
     <t>Fuse/breaker direction</t>
   </si>
   <si>
     <t>Disconnector direction</t>
   </si>
   <si>
-    <t>Breaker Type</t>
-  </si>
-  <si>
     <t>Transformer Type</t>
   </si>
   <si>
-    <t>Nr Breaker</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
@@ -168,9 +159,6 @@
   </si>
   <si>
     <t>Line 2</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Inf</t>
@@ -572,15 +560,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4E8D12-5BBA-4420-83A4-3BE8673EEFAA}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -591,10 +579,10 @@
         <v>29</v>
       </c>
       <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
       </c>
       <c r="G1" t="s">
         <v>35</v>
@@ -603,19 +591,10 @@
         <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -635,7 +614,7 @@
         <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -643,14 +622,8 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -670,7 +643,7 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -678,14 +651,8 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -705,7 +672,7 @@
         <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -713,14 +680,8 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -740,7 +701,7 @@
         <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -748,14 +709,8 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -775,7 +730,7 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -783,14 +738,8 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -810,7 +759,7 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -818,14 +767,8 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -845,7 +788,7 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -853,14 +796,8 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -880,18 +817,12 @@
         <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
         <v>0</v>
       </c>
     </row>
@@ -986,7 +917,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>0.56599999999999995</v>
@@ -1007,10 +938,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF1C9F0-4343-4AD1-924D-ED1403BEA6CF}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +951,7 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
         <v>31</v>
@@ -1031,27 +962,13 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1063,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E048BFAE-5E89-49CD-86BC-5447EDAEAF07}">
   <dimension ref="B1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1007,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1020,7 @@
         <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -1111,7 +1028,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -1125,7 +1042,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0.2</v>
